--- a/opengever/bundle/tests/assets/basic_repository_de_only.xlsx
+++ b/opengever/bundle/tests/assets/basic_repository_de_only.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10912"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Work/development/opengever.core/opengever/bundle/tests/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukasgraf/Plone/buildouts/opengever/og-zgschmieden/opengever/bundle/tests/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2177D40A-604E-C04B-9D8C-B1EE26B5C5A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9B6FA4-F1DC-334B-8E31-764B1D50A0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
   <si>
     <t>reference_number</t>
   </si>
@@ -363,9 +363,6 @@
   </si>
   <si>
     <t>og_demo-ftw_users</t>
-  </si>
-  <si>
-    <t>Ordnungssysteme</t>
   </si>
 </sst>
 </file>
@@ -1330,7 +1327,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1560,7 +1557,7 @@
     <row r="6" spans="1:19" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="19"/>
       <c r="B6" s="20" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
